--- a/biology/Mycologie/Gleicheniaceae/Gleicheniaceae.xlsx
+++ b/biology/Mycologie/Gleicheniaceae/Gleicheniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Gleicheniaceae est une famille de fougères.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Gleichenia, nommé en l'honneur du naturaliste allemand Wilhelm Friedrich von Gleichen (en)
-(1717–1783)[3].
+(1717–1783).
 </t>
         </is>
       </c>
@@ -543,22 +557,24 @@
           <t>Liste des espèces et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (16 novembre 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 novembre 2018) :
 Dicranopteris Bernh.
 Diplopterygium (Diels) Nakai
 Gleichenia Sm.
 Sticherus K. Presl
 Stromatopteris Mett.
-Selon Catalogue of Life                                   (16 novembre 2018)[5] :
+Selon Catalogue of Life                                   (16 novembre 2018) :
 Dicranopteris
 Diplopterygium
 Gleichenella
 Gleichenia
 Sticherus
 Stromatopteris
-Selon GRIN            (16 novembre 2018)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon GRIN            (16 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Dicranopteris
 Dicranopteris linearis (Burm. f.) Underw.
 Diplopterygium
@@ -572,19 +588,19 @@
 Sticherus owhyhensis (Hook.) Ching
 Sticherus palmatus (J. H. Schaffn. ex Underw.) Copel.
 Sticherus remotus (Kaulf.) Chrysler
-Selon ITIS      (16 novembre 2018)[6] :
+Selon ITIS      (16 novembre 2018) :
 Dicranopteris Bernh.
 Diplopterygium (Diels) Nakai
 Gleichenia Sm.
 Sticherus C. Presl
-Selon NCBI  (16 novembre 2018)[7] :
+Selon NCBI  (16 novembre 2018) :
 Dicranopteris Bernh., 1805
 Diplopterygium (Diels) Nakai, 1950
 Gleichenella Ching, 1940
 Gleichenia Sm., 1793
 Sticherus C.Presl, 1836
 Stromatopteris Mett., 1861
-Selon Paleobiology Database                   (16 novembre 2018)[8] :
+Selon Paleobiology Database                   (16 novembre 2018) :
 Boodlepteris
 Clavifera
 Dicranopteris
@@ -593,7 +609,7 @@
 Gleichenipteris
 Microphyllopteris
 Ornamentifera
-Selon Tropicos                                           (16 novembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Acropterygium (Diels) Nakai
 Calymella C. Presl
 Dicranopteris Bernh.
